--- a/calc.xlsx
+++ b/calc.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckle\AI-Nuclear-Fusion-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3B6E2-E28A-4B29-97FD-9646FC74FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044FEC5-2354-452B-BF99-897951D48077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="705" windowWidth="19440" windowHeight="14880" xr2:uid="{AFC62249-A2E5-4452-8C07-98BAC5A28989}"/>
+    <workbookView xWindow="-22095" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{AFC62249-A2E5-4452-8C07-98BAC5A28989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -121,6 +120,21 @@
   </si>
   <si>
     <t>density ratio sphere/ background</t>
+  </si>
+  <si>
+    <t>qE</t>
+  </si>
+  <si>
+    <t>rv</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r/2m</t>
+  </si>
+  <si>
+    <t>electron vel</t>
   </si>
 </sst>
 </file>
@@ -476,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C39301-7781-4595-8A00-DBFB34121AA4}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +606,9 @@
         <f>E4*A12</f>
         <v>4.0000000000000002E-4</v>
       </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -606,6 +623,10 @@
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H7" s="1">
+        <f>1.6E-19*A8</f>
+        <v>1.5999999999999999E-9</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -640,6 +661,18 @@
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -661,6 +694,22 @@
         <f>C2-B10</f>
         <v>2953216</v>
       </c>
+      <c r="H10" s="1">
+        <f>H7</f>
+        <v>1.5999999999999999E-9</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SQRT(2*1.38E-23*A2/9.11E-31)</f>
+        <v>17405854.649233758</v>
+      </c>
+      <c r="J10" s="1">
+        <f>H10/I10</f>
+        <v>9.1923093248996838E-17</v>
+      </c>
+      <c r="K10" s="1">
+        <f>J10/2/9.11E-31</f>
+        <v>50451752606474.664</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -693,6 +742,7 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -711,6 +761,12 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>13243/200</f>
+        <v>66.215000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckle\AI-Nuclear-Fusion-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044FEC5-2354-452B-BF99-897951D48077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C9D0E-A9C7-41EA-A80F-E03EF3E794FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22095" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{AFC62249-A2E5-4452-8C07-98BAC5A28989}"/>
+    <workbookView xWindow="-19320" yWindow="705" windowWidth="19440" windowHeight="14880" xr2:uid="{AFC62249-A2E5-4452-8C07-98BAC5A28989}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>N</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>electron vel</t>
+  </si>
+  <si>
+    <t>a total</t>
+  </si>
+  <si>
+    <t>t total vele</t>
+  </si>
+  <si>
+    <t>vel e</t>
+  </si>
+  <si>
+    <t>vel i</t>
+  </si>
+  <si>
+    <t>t total veli</t>
   </si>
 </sst>
 </file>
@@ -490,191 +505,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C39301-7781-4595-8A00-DBFB34121AA4}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10000000</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <f>SQRT(2*1.38E-23*A2/9.11E-31)</f>
+        <v>17405854.649233758</v>
       </c>
       <c r="C2" s="1">
+        <f>A18/B2</f>
+        <v>9.1923093248996848E-11</v>
+      </c>
+      <c r="D2" s="1">
         <f>A16^3*A10*B2</f>
-        <v>16777216</v>
-      </c>
-      <c r="H2" s="1">
+        <v>292021783114799</v>
+      </c>
+      <c r="I2" s="1">
         <v>175880000000</v>
       </c>
-      <c r="J2">
-        <f>-H2*L2</f>
+      <c r="K2">
+        <f>-I2*M2</f>
         <v>-1.7588E-3</v>
       </c>
-      <c r="K2">
-        <f>J2*A6</f>
+      <c r="L2">
+        <f>K2*A6</f>
         <v>-1.7588E-4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10000000</v>
       </c>
+      <c r="B4" s="1">
+        <f>SQRT(2*1.38E-23*A4/1.67E-27)</f>
+        <v>406533.46858265472</v>
+      </c>
       <c r="C4" s="1">
-        <f>A14/C2</f>
-        <v>59604.644775390625</v>
-      </c>
-      <c r="E4">
+        <f>A18/B4</f>
+        <v>3.9357153190320775E-9</v>
+      </c>
+      <c r="D4" s="1">
+        <f>A14/D2</f>
+        <v>3.4244020748509778E-3</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
-        <f>J2*L2</f>
+      <c r="K4" s="1">
+        <f>K2*M2</f>
         <v>-1.7587999999999999E-17</v>
       </c>
-      <c r="K4" s="1">
-        <f>J4*A8</f>
+      <c r="L4" s="1">
+        <f>K4*A8</f>
         <v>-1.7587999999999998E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <f>A12^3</f>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="E6" s="1">
-        <f>E4*A12</f>
+      <c r="F6" s="1">
+        <f>F4*A12</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f>1.6E-19*A8</f>
         <v>1.5999999999999999E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10000000000</v>
       </c>
-      <c r="C8" s="1">
-        <f>C4*A10/C6</f>
-        <v>3.0517578124999999E+19</v>
-      </c>
-      <c r="E8" s="1">
-        <f>(C2-(A16-2)^3*A10)/C6*C4</f>
-        <v>1.76025390625E+23</v>
+      <c r="D8" s="1">
+        <f>D4*A10/D6</f>
+        <v>1753293862323.7007</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/C8</f>
-        <v>5768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <f>(D2-(A16-2)^3*A10)/D6*D4</f>
+        <v>9.9999995266106573E+23</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8/D8</f>
+        <v>570355018146.0918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>512</v>
       </c>
@@ -682,91 +723,101 @@
         <f>A10*(A16-2)^3</f>
         <v>13824000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1"/>
+      <c r="D10">
         <f>A16^3</f>
         <v>32768</v>
       </c>
-      <c r="E10" s="1">
-        <f>4/3*PI()*E6^3*E8</f>
-        <v>47189339650796.68</v>
-      </c>
       <c r="F10" s="1">
-        <f>C2-B10</f>
-        <v>2953216</v>
-      </c>
-      <c r="H10" s="1">
-        <f>H7</f>
+        <f>4/3*PI()*F6^3*F8</f>
+        <v>268082560415585.66</v>
+      </c>
+      <c r="G10" s="1">
+        <f>D2-B10</f>
+        <v>292021769290799</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I7</f>
         <v>1.5999999999999999E-9</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f>SQRT(2*1.38E-23*A2/9.11E-31)</f>
         <v>17405854.649233758</v>
       </c>
-      <c r="J10" s="1">
-        <f>H10/I10</f>
+      <c r="K10" s="1">
+        <f>I10/J10</f>
         <v>9.1923093248996838E-17</v>
       </c>
-      <c r="K10" s="1">
-        <f>J10/2/9.11E-31</f>
+      <c r="L10" s="1">
+        <f>K10/2/9.11E-31</f>
         <v>50451752606474.664</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1E-4</v>
       </c>
-      <c r="C12">
-        <f>C10*8</f>
+      <c r="D12">
+        <f>D10*8</f>
         <v>262144</v>
       </c>
-      <c r="E12" s="1">
-        <f>E10*1.6E-19</f>
-        <v>7.5502943441274685E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <f>F10*1.6E-19</f>
+        <v>4.2893209666493705E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1000000000000</v>
       </c>
-      <c r="E14" s="1">
-        <f>E12/4/PI()/0.0000000000088/E6^2</f>
-        <v>426728219696.9696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <f>F12/4/PI()/0.0000000000088/F6^2</f>
+        <v>2424242309481.3711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
         <f>13243/200</f>
         <v>66.215000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>A12*A16/2</f>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckle\AI-Nuclear-Fusion-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C9D0E-A9C7-41EA-A80F-E03EF3E794FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048457-3792-41C2-BACA-DA8B09E8AA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="705" windowWidth="19440" windowHeight="14880" xr2:uid="{AFC62249-A2E5-4452-8C07-98BAC5A28989}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>N</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>t total veli</t>
+  </si>
+  <si>
+    <t>multiply by</t>
+  </si>
+  <si>
+    <t>target density 1 torr</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +563,8 @@
         <v>9.1923093248996848E-11</v>
       </c>
       <c r="D2" s="1">
-        <f>A16^3*A10*B2</f>
-        <v>292021783114799</v>
+        <f>A16^3*A10*B6</f>
+        <v>1048576</v>
       </c>
       <c r="I2" s="1">
         <v>175880000000</v>
@@ -569,7 +575,7 @@
       </c>
       <c r="L2">
         <f>K2*A6</f>
-        <v>-1.7588E-4</v>
+        <v>-3.5175999999999999E-2</v>
       </c>
       <c r="M2" s="1">
         <v>1E-14</v>
@@ -609,10 +615,10 @@
       </c>
       <c r="D4" s="1">
         <f>A14/D2</f>
-        <v>3.4244020748509778E-3</v>
+        <v>95367.431640625</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1">
         <f>K2*M2</f>
@@ -627,6 +633,9 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -636,7 +645,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.1</v>
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f>A12^3</f>
@@ -644,7 +656,7 @@
       </c>
       <c r="F6" s="1">
         <f>F4*A12</f>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -667,6 +679,9 @@
         <f>1.6E-19*A8</f>
         <v>1.5999999999999999E-9</v>
       </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -674,15 +689,18 @@
       </c>
       <c r="D8" s="1">
         <f>D4*A10/D6</f>
-        <v>1753293862323.7007</v>
+        <v>3.0517578125000003E+18</v>
       </c>
       <c r="F8" s="1">
         <f>(D2-(A16-2)^3*A10)/D6*D4</f>
-        <v>9.9999995266106573E+23</v>
+        <v>1.76025390625E+22</v>
       </c>
       <c r="G8" s="1">
         <f>F8/D8</f>
-        <v>570355018146.0918</v>
+        <v>5767.9999999999991</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.0000000000000004E+22</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -717,11 +735,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <f>A10*(A16-2)^3</f>
-        <v>13824000</v>
+        <v>864000</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10">
@@ -730,11 +748,11 @@
       </c>
       <c r="F10" s="1">
         <f>4/3*PI()*F6^3*F8</f>
-        <v>268082560415585.66</v>
+        <v>37751471720637.344</v>
       </c>
       <c r="G10" s="1">
         <f>D2-B10</f>
-        <v>292021769290799</v>
+        <v>184576</v>
       </c>
       <c r="I10" s="1">
         <f>I7</f>
@@ -774,7 +792,7 @@
       </c>
       <c r="F12" s="1">
         <f>F10*1.6E-19</f>
-        <v>4.2893209666493705E-5</v>
+        <v>6.0402354753019743E-6</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -788,11 +806,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F14" s="1">
         <f>F12/4/PI()/0.0000000000088/F6^2</f>
-        <v>2424242309481.3711</v>
+        <v>85345643939.393921</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
